--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SebastiánPariasArias\Downloads\qr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbspr\OneDrive\Documentos\github\Generador-credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AFC368-B89B-4088-9E4A-6CB0C2ECCE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E6DB12-0AD6-4325-9474-8BFE03EAD063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3297755C-92E8-4CA9-AEED-CC1A3C33402E}"/>
+    <workbookView xWindow="2436" yWindow="0" windowWidth="17280" windowHeight="9420" xr2:uid="{3297755C-92E8-4CA9-AEED-CC1A3C33402E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -36,33 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>HOGAR OUT</t>
-  </si>
-  <si>
-    <t>MIGRACION</t>
-  </si>
-  <si>
-    <t>PORTABILIDAD</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>Nombre agente</t>
-  </si>
-  <si>
-    <t>Campaña</t>
-  </si>
-  <si>
-    <t>MARIANA ACEVEDO</t>
-  </si>
-  <si>
-    <t>JUAN CAMILO ARIAS</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO GIRALDO SALAZAR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Dirección sala u oficina</t>
+  </si>
+  <si>
+    <t>Telefono corporativo o correo</t>
+  </si>
+  <si>
+    <t>LILIANA AREIZA ESPINOSA</t>
+  </si>
+  <si>
+    <t>Cajera</t>
+  </si>
+  <si>
+    <t>Nombre sala o municipio</t>
+  </si>
+  <si>
+    <t>Auxiliar contable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR 42 # 31-45 </t>
+  </si>
+  <si>
+    <t>Itagüí</t>
+  </si>
+  <si>
+    <t>Calle 50 # 56b - 16</t>
+  </si>
+  <si>
+    <t>YENIFER LOAIZA</t>
+  </si>
+  <si>
+    <t>Sala San Benito 3</t>
   </si>
 </sst>
 </file>
@@ -132,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +184,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -278,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,69 +440,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C8F91C-B805-4A58-9488-D77C8539D71C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1">
+        <v>3116742795</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1111111111</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+      <c r="C3" s="1">
+        <v>3113789664</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2222222222</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3333333333</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>

--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbspr\OneDrive\Documentos\github\Generador-credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E6DB12-0AD6-4325-9474-8BFE03EAD063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2AC853-9098-4233-9FDD-BD6B1C755B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="0" windowWidth="17280" windowHeight="9420" xr2:uid="{3297755C-92E8-4CA9-AEED-CC1A3C33402E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3297755C-92E8-4CA9-AEED-CC1A3C33402E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nombre</t>
   </si>
@@ -50,38 +50,29 @@
     <t>Telefono corporativo o correo</t>
   </si>
   <si>
-    <t>LILIANA AREIZA ESPINOSA</t>
-  </si>
-  <si>
-    <t>Cajera</t>
-  </si>
-  <si>
     <t>Nombre sala o municipio</t>
   </si>
   <si>
-    <t>Auxiliar contable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR 42 # 31-45 </t>
-  </si>
-  <si>
-    <t>Itagüí</t>
-  </si>
-  <si>
-    <t>Calle 50 # 56b - 16</t>
-  </si>
-  <si>
-    <t>YENIFER LOAIZA</t>
-  </si>
-  <si>
-    <t>Sala San Benito 3</t>
+    <t>Pisos y Enchapes Eurocaribe S.A.S</t>
+  </si>
+  <si>
+    <t>Cr 42 # 31-45 Itagüí</t>
+  </si>
+  <si>
+    <t>SEBASTIAN ARDILA</t>
+  </si>
+  <si>
+    <t>Practicante de diseño</t>
+  </si>
+  <si>
+    <t>diseno@eurocaribe.com.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +84,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,10 +114,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,8 +126,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -144,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -290,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C8F91C-B805-4A58-9488-D77C8539D71C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,42 +473,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>3116742795</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3113789664</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -516,13 +508,11 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B852B82F-B192-44DA-AA27-18F0CFD24700}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>